--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5.625208956986959E-06</v>
+        <v>3.51660537190763E-06</v>
       </c>
       <c r="E2">
-        <v>5.625208956986959E-06</v>
+        <v>3.51660537190763E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.831643802822912E-23</v>
+        <v>5.647895547456047E-23</v>
       </c>
       <c r="E3">
-        <v>6.831643802822912E-23</v>
+        <v>5.647895547456047E-23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8.771308653488242E-11</v>
+        <v>1.307617941001401E-11</v>
       </c>
       <c r="E4">
-        <v>8.771308653488242E-11</v>
+        <v>1.307617941001401E-11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.870072800452908E-23</v>
+        <v>8.341119027495172E-17</v>
       </c>
       <c r="E5">
-        <v>1.870072800452908E-23</v>
+        <v>8.341119027495172E-17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999988096864</v>
+        <v>0.9999999980978174</v>
       </c>
       <c r="E6">
-        <v>0.9999999988096864</v>
+        <v>0.9999999980978174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.282691959653279E-05</v>
+        <v>5.904795123004318E-05</v>
       </c>
       <c r="E8">
-        <v>0.9999771730804035</v>
+        <v>0.99994095204877</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008796339394811442</v>
+        <v>0.122122514494204</v>
       </c>
       <c r="E9">
-        <v>0.9912036606051886</v>
+        <v>0.877877485505796</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999920717</v>
+        <v>0.9999999999999791</v>
       </c>
       <c r="E11">
-        <v>7.928324663453168E-12</v>
+        <v>2.087219286295294E-14</v>
       </c>
       <c r="F11">
-        <v>3.597004413604736</v>
+        <v>3.192015886306763</v>
       </c>
       <c r="G11">
         <v>0.7</v>
